--- a/MESdata.xlsx
+++ b/MESdata.xlsx
@@ -23044,7 +23044,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45030.59791666667</v>
+        <v>45030.59814814815</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>45030.59850694444</v>
@@ -23093,7 +23093,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45030.59814814815</v>
+        <v>45030.59815972222</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>45030.59825231481</v>

--- a/MESdata.xlsx
+++ b/MESdata.xlsx
@@ -23044,7 +23044,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45030.59814814815</v>
+        <v>45030.59827546297</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>45030.59850694444</v>
@@ -23093,7 +23093,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45030.59815972222</v>
+        <v>45030.59828703704</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>45030.59825231481</v>

--- a/MESdata.xlsx
+++ b/MESdata.xlsx
@@ -23044,7 +23044,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45030.59856481481</v>
+        <v>45030.59969907408</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>45030.59850694444</v>
@@ -23093,7 +23093,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45030.59855324074</v>
+        <v>45030.5996875</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>45030.59825231481</v>

--- a/MESdata.xlsx
+++ b/MESdata.xlsx
@@ -23044,7 +23044,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45030.59969907408</v>
+        <v>45030.59975694444</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>45030.59850694444</v>
@@ -23093,7 +23093,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45030.5996875</v>
+        <v>45030.59976851852</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>45030.59825231481</v>
